--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.WORKING-FOLDER\3.Study\4.Финтех_бакалавриат\021.Хакатон_Robofinance\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520892B0-5CC3-4D6C-8A51-930C04564DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADD5C8-FEDA-4B13-8437-8AC6A5156F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="даты" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="0">Sheet2!$D$53</definedName>
@@ -27,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="188">
   <si>
     <t xml:space="preserve"> 'client_id',</t>
   </si>
@@ -896,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +905,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -964,7 +969,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -976,12 +983,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1293,19 +1420,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.125" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="134.09765625" customWidth="1"/>
+    <col min="5" max="5" width="46.59765625" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>175</v>
       </c>
@@ -1316,7 +1443,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1327,7 +1454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1338,18 +1465,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1360,18 +1487,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1382,7 +1509,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1393,7 +1520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1404,7 +1531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1415,7 +1542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="399.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="399.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1429,23 +1556,23 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+    <row r="13" spans="2:5" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1456,7 +1583,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1467,7 +1594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1478,7 +1605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1489,7 +1616,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1500,7 +1627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1511,7 +1638,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1522,7 +1649,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1533,7 +1660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1544,7 +1671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1555,7 +1682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
@@ -1566,7 +1693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1577,7 +1704,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1588,7 +1715,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1599,7 +1726,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="193.2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>26</v>
       </c>
@@ -1610,7 +1737,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1621,7 +1748,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>28</v>
       </c>
@@ -1632,7 +1759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>29</v>
       </c>
@@ -1643,7 +1770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>30</v>
       </c>
@@ -1654,7 +1781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>31</v>
       </c>
@@ -1665,7 +1792,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>32</v>
       </c>
@@ -1676,7 +1803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>33</v>
       </c>
@@ -1687,7 +1814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>34</v>
       </c>
@@ -1698,7 +1825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>35</v>
       </c>
@@ -1709,7 +1836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>36</v>
       </c>
@@ -1720,7 +1847,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>37</v>
       </c>
@@ -1731,7 +1858,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>38</v>
       </c>
@@ -1742,7 +1869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>39</v>
       </c>
@@ -1753,7 +1880,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>40</v>
       </c>
@@ -1764,7 +1891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>41</v>
       </c>
@@ -1775,7 +1902,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>42</v>
       </c>
@@ -1786,7 +1913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>43</v>
       </c>
@@ -1797,7 +1924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>44</v>
       </c>
@@ -1808,7 +1935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>45</v>
       </c>
@@ -1819,7 +1946,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>46</v>
       </c>
@@ -1830,7 +1957,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>47</v>
       </c>
@@ -1841,7 +1968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>48</v>
       </c>
@@ -1852,7 +1979,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>49</v>
       </c>
@@ -1863,7 +1990,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>50</v>
       </c>
@@ -1874,7 +2001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="248.4" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>51</v>
       </c>
@@ -1885,7 +2012,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>52</v>
       </c>
@@ -1896,7 +2023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>53</v>
       </c>
@@ -1907,7 +2034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>54</v>
       </c>
@@ -1918,7 +2045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>55</v>
       </c>
@@ -1929,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>56</v>
       </c>
@@ -1940,7 +2067,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>57</v>
       </c>
@@ -1951,7 +2078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>58</v>
       </c>
@@ -1962,7 +2089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>59</v>
       </c>
@@ -1973,7 +2100,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>60</v>
       </c>
@@ -1984,18 +2111,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="69" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2006,7 +2133,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>63</v>
       </c>
@@ -2017,7 +2144,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2028,7 +2155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2039,7 +2166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2050,7 +2177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>67</v>
       </c>
@@ -2061,7 +2188,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>68</v>
       </c>
@@ -2072,7 +2199,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>69</v>
       </c>
@@ -2083,7 +2210,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>70</v>
       </c>
@@ -2094,7 +2221,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>71</v>
       </c>
@@ -2105,7 +2232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>72</v>
       </c>
@@ -2116,7 +2243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>73</v>
       </c>
@@ -2127,7 +2254,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>74</v>
       </c>
@@ -2138,7 +2265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>75</v>
       </c>
@@ -2149,7 +2276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>76</v>
       </c>
@@ -2160,7 +2287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>77</v>
       </c>
@@ -2171,7 +2298,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>78</v>
       </c>
@@ -2182,7 +2309,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>79</v>
       </c>
@@ -2193,7 +2320,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" ht="27" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>80</v>
       </c>
@@ -2204,7 +2331,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" ht="27" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>81</v>
       </c>
@@ -2215,7 +2342,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" ht="27" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>82</v>
       </c>
@@ -2226,7 +2353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>83</v>
       </c>
@@ -2237,7 +2364,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>84</v>
       </c>
@@ -2248,7 +2375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>85</v>
       </c>
@@ -2259,7 +2386,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>86</v>
       </c>
@@ -2270,7 +2397,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>87</v>
       </c>
@@ -2281,7 +2408,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>88</v>
       </c>
@@ -2292,7 +2419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>89</v>
       </c>
@@ -2303,7 +2430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>90</v>
       </c>
@@ -2314,7 +2441,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>91</v>
       </c>
@@ -2325,20 +2452,20 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="268.5" x14ac:dyDescent="0.25">
-      <c r="B95" s="10">
+    <row r="95" spans="2:4" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="12">
         <v>92</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>171</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="10"/>
-      <c r="C96" s="7"/>
+    <row r="96" spans="2:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="2" t="s">
         <v>177</v>
       </c>
@@ -2351,6 +2478,384 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B13:B14"/>
   </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.8984375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="126" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1 B3:B8">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B21 B24:B25">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B11">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B28">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.WORKING-FOLDER\3.Study\4.Финтех_бакалавриат\021.Хакатон_Robofinance\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ADD5C8-FEDA-4B13-8437-8AC6A5156F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92B560-2D3F-4136-B7CA-EA2A232FC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
     <sheet name="даты" sheetId="3" r:id="rId2"/>
+    <sheet name="непрерывные_переменные" sheetId="4" r:id="rId3"/>
+    <sheet name="категориальные_переменные" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Sheet2!$D$53</definedName>
-    <definedName name="_ftnref1" localSheetId="0">Sheet2!$E$43</definedName>
+    <definedName name="_ftn1" localSheetId="0">исходные_данные!$D$53</definedName>
+    <definedName name="_ftnref1" localSheetId="0">исходные_данные!$E$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="188">
   <si>
     <t xml:space="preserve"> 'client_id',</t>
   </si>
@@ -951,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -983,11 +985,279 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1085,26 +1355,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1418,21 +1668,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
-  <dimension ref="B2:E96"/>
+  <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.09765625" customWidth="1"/>
-    <col min="5" max="5" width="46.59765625" customWidth="1"/>
-    <col min="6" max="6" width="24.8984375" customWidth="1"/>
+    <col min="4" max="4" width="134.125" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>175</v>
       </c>
@@ -1443,7 +1693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1453,8 +1703,11 @@
       <c r="D3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1464,8 +1717,11 @@
       <c r="D4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1475,8 +1731,11 @@
       <c r="D5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1486,8 +1745,11 @@
       <c r="D6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1497,8 +1759,11 @@
       <c r="D7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1508,8 +1773,11 @@
       <c r="D8" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1519,8 +1787,11 @@
       <c r="D9" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1530,8 +1801,11 @@
       <c r="D10" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1541,8 +1815,11 @@
       <c r="D11" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="399.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="399.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1555,8 +1832,11 @@
       <c r="E12" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -1566,13 +1846,19 @@
       <c r="D13" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1582,8 +1868,11 @@
       <c r="D15" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1593,8 +1882,11 @@
       <c r="D16" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1604,8 +1896,11 @@
       <c r="D17" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1615,8 +1910,11 @@
       <c r="D18" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1626,8 +1924,11 @@
       <c r="D19" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1637,8 +1938,11 @@
       <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1648,8 +1952,11 @@
       <c r="D21" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1659,8 +1966,11 @@
       <c r="D22" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="39" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1670,8 +1980,11 @@
       <c r="D23" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1681,8 +1994,11 @@
       <c r="D24" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
@@ -1692,8 +2008,11 @@
       <c r="D25" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1703,8 +2022,11 @@
       <c r="D26" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1714,8 +2036,11 @@
       <c r="D27" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -1725,8 +2050,11 @@
       <c r="D28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="179.25" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -1736,8 +2064,11 @@
       <c r="D29" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -1747,8 +2078,11 @@
       <c r="D30" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -1758,8 +2092,11 @@
       <c r="D31" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -1769,8 +2106,11 @@
       <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -1780,8 +2120,11 @@
       <c r="D33" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
@@ -1791,8 +2134,11 @@
       <c r="D34" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -1802,8 +2148,11 @@
       <c r="D35" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -1813,8 +2162,11 @@
       <c r="D36" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -1824,8 +2176,11 @@
       <c r="D37" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -1835,8 +2190,11 @@
       <c r="D38" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -1846,8 +2204,11 @@
       <c r="D39" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -1857,8 +2218,11 @@
       <c r="D40" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -1868,8 +2232,11 @@
       <c r="D41" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -1879,8 +2246,11 @@
       <c r="D42" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -1890,8 +2260,11 @@
       <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -1901,8 +2274,11 @@
       <c r="D44" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -1912,8 +2288,11 @@
       <c r="D45" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -1923,8 +2302,11 @@
       <c r="D46" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -1934,8 +2316,11 @@
       <c r="D47" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -1945,8 +2330,11 @@
       <c r="D48" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -1956,8 +2344,11 @@
       <c r="D49" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -1967,8 +2358,11 @@
       <c r="D50" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -1978,8 +2372,11 @@
       <c r="D51" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -1989,8 +2386,11 @@
       <c r="D52" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -2000,8 +2400,11 @@
       <c r="D53" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="230.25" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -2011,8 +2414,11 @@
       <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -2022,8 +2428,11 @@
       <c r="D55" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -2033,8 +2442,11 @@
       <c r="D56" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -2044,8 +2456,11 @@
       <c r="D57" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="39" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -2055,8 +2470,11 @@
       <c r="D58" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -2066,8 +2484,11 @@
       <c r="D59" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -2077,8 +2498,11 @@
       <c r="D60" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -2088,8 +2512,11 @@
       <c r="D61" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -2099,8 +2526,11 @@
       <c r="D62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -2110,8 +2540,11 @@
       <c r="D63" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -2121,8 +2554,11 @@
       <c r="D64" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2132,8 +2568,11 @@
       <c r="D65" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -2143,8 +2582,11 @@
       <c r="D66" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2154,8 +2596,11 @@
       <c r="D67" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2165,8 +2610,11 @@
       <c r="D68" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2176,8 +2624,11 @@
       <c r="D69" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -2187,8 +2638,11 @@
       <c r="D70" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -2198,8 +2652,11 @@
       <c r="D71" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -2209,8 +2666,11 @@
       <c r="D72" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -2220,8 +2680,11 @@
       <c r="D73" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -2231,8 +2694,11 @@
       <c r="D74" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="39" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -2242,8 +2708,11 @@
       <c r="D75" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -2253,8 +2722,11 @@
       <c r="D76" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -2264,8 +2736,11 @@
       <c r="D77" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -2275,8 +2750,11 @@
       <c r="D78" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
@@ -2286,8 +2764,11 @@
       <c r="D79" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
@@ -2297,8 +2778,11 @@
       <c r="D80" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>78</v>
       </c>
@@ -2308,8 +2792,11 @@
       <c r="D81" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="39" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>79</v>
       </c>
@@ -2319,8 +2806,11 @@
       <c r="D82" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>80</v>
       </c>
@@ -2330,8 +2820,11 @@
       <c r="D83" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>81</v>
       </c>
@@ -2341,8 +2834,11 @@
       <c r="D84" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>82</v>
       </c>
@@ -2352,8 +2848,11 @@
       <c r="D85" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>83</v>
       </c>
@@ -2363,8 +2862,11 @@
       <c r="D86" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>84</v>
       </c>
@@ -2374,8 +2876,11 @@
       <c r="D87" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>85</v>
       </c>
@@ -2385,8 +2890,11 @@
       <c r="D88" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>86</v>
       </c>
@@ -2396,8 +2904,11 @@
       <c r="D89" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>87</v>
       </c>
@@ -2407,8 +2918,11 @@
       <c r="D90" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>88</v>
       </c>
@@ -2418,8 +2932,11 @@
       <c r="D91" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>89</v>
       </c>
@@ -2429,8 +2946,11 @@
       <c r="D92" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>90</v>
       </c>
@@ -2440,8 +2960,11 @@
       <c r="D93" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>91</v>
       </c>
@@ -2451,8 +2974,11 @@
       <c r="D94" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="268.5" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
         <v>92</v>
       </c>
@@ -2462,12 +2988,18 @@
       <c r="D95" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B96" s="12"/>
       <c r="C96" s="9"/>
       <c r="D96" s="2" t="s">
         <v>177</v>
+      </c>
+      <c r="F96">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2479,14 +3011,18 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="currency">
+      <formula>NOT(ISERROR(SEARCH("currency",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2494,18 +3030,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.8984375" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2516,7 +3052,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2527,7 +3063,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2538,7 +3074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2549,7 +3085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2560,7 +3096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2571,7 +3107,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2582,7 +3118,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2593,7 +3129,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2604,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2615,7 +3151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2626,7 +3162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2637,7 +3173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2648,7 +3184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2659,7 +3195,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2670,7 +3206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2681,7 +3217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2692,7 +3228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2703,7 +3239,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2714,7 +3250,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2725,7 +3261,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2736,7 +3272,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2747,7 +3283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2758,7 +3294,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2769,7 +3305,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2780,7 +3316,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2791,7 +3327,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2802,7 +3338,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2815,47 +3351,627 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B3:B8">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B21 B24:B25">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B11">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
+  <dimension ref="B1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B20">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B24">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B29">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="120" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="268.5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="230.25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B22 B24:B27">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="_date">
+      <formula>NOT(ISERROR(SEARCH("_date",B23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="dt">
+      <formula>NOT(ISERROR(SEARCH("dt",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.WORKING-FOLDER\3.Study\4.Финтех_бакалавриат\021.Хакатон_Robofinance\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92B560-2D3F-4136-B7CA-EA2A232FC11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A0F1E-AB6D-42D4-ADE9-FA991B0A7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="11712" yWindow="420" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -815,26 +815,6 @@
     <t>дата последней загрузки</t>
   </si>
   <si>
-    <t>1	Заем (кредит)
-2	Заем (кредит) с ипотекой
-3	Микрозаем
-4	Кредитная линия с лимитом выдачи
-5	Кредитная линия с лимитом задолженности
-6	Комбинированная кредитная линия с лимитом выдачи и лимитом задолженности
-7	Кредит «овердрафт» (кредитование счета)
-8	Синдицированный заем (кредит)
-9	Жилищный кредит (кроме кредита с ипотекой)
-10	Кредит с ипотекой
-11	Кредит на приобретение автотранспортного средства
-12	Кредит на приобретение транспортного средства за исключением кредита на приобретение автотранспортного средства
-13	Необеспеченный микрозаем
-14	Иной необеспеченный заем
-15	Жилищный заем (кроме займа с ипотекой)
-16	Заем с ипотекой
-17	Заем на приобретение автомобиля
-99	Иной заем (кредит)</t>
-  </si>
-  <si>
     <t>Код вида займа (кредита)
 Заполняется по справочнику 2.3.
 1	Заем (кредит)
@@ -855,6 +835,9 @@
 16	Заем с ипотекой
 17	Заем на приобретение автомобиля
 99	Иной заем (кредит)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 16, </t>
   </si>
 </sst>
 </file>
@@ -973,6 +956,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,59 +969,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1358,6 +1294,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1670,19 +1633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C96"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.125" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="95.3984375" customWidth="1"/>
+    <col min="5" max="5" width="46.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>175</v>
       </c>
@@ -1693,7 +1658,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1707,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1735,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1749,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1763,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1777,7 +1742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1791,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1805,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1819,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="399.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="399.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1827,38 +1792,38 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+    <row r="13" spans="2:6" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>184</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="2:6" ht="408.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="F14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1872,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1886,7 +1851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1900,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1914,7 +1879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1928,7 +1893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1942,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1956,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1970,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1984,7 +1949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
@@ -1998,7 +1963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
@@ -2012,7 +1977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>23</v>
       </c>
@@ -2026,7 +1991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24</v>
       </c>
@@ -2040,7 +2005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>25</v>
       </c>
@@ -2054,7 +2019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="193.2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>26</v>
       </c>
@@ -2068,7 +2033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>27</v>
       </c>
@@ -2082,7 +2047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>28</v>
       </c>
@@ -2096,7 +2061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>29</v>
       </c>
@@ -2110,7 +2075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>30</v>
       </c>
@@ -2124,7 +2089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>31</v>
       </c>
@@ -2138,7 +2103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>32</v>
       </c>
@@ -2152,7 +2117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>33</v>
       </c>
@@ -2166,7 +2131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>34</v>
       </c>
@@ -2180,7 +2145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>35</v>
       </c>
@@ -2194,7 +2159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>36</v>
       </c>
@@ -2208,7 +2173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>37</v>
       </c>
@@ -2222,7 +2187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>38</v>
       </c>
@@ -2236,7 +2201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>39</v>
       </c>
@@ -2250,7 +2215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>40</v>
       </c>
@@ -2264,7 +2229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>41</v>
       </c>
@@ -2278,7 +2243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>42</v>
       </c>
@@ -2292,7 +2257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>43</v>
       </c>
@@ -2306,7 +2271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>44</v>
       </c>
@@ -2320,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>45</v>
       </c>
@@ -2334,7 +2299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>46</v>
       </c>
@@ -2348,7 +2313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>47</v>
       </c>
@@ -2362,7 +2327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>48</v>
       </c>
@@ -2376,7 +2341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>49</v>
       </c>
@@ -2390,7 +2355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>50</v>
       </c>
@@ -2404,7 +2369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="248.4" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>51</v>
       </c>
@@ -2418,7 +2383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>52</v>
       </c>
@@ -2432,7 +2397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>53</v>
       </c>
@@ -2446,7 +2411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>54</v>
       </c>
@@ -2460,7 +2425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>55</v>
       </c>
@@ -2474,7 +2439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>56</v>
       </c>
@@ -2488,7 +2453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>57</v>
       </c>
@@ -2502,7 +2467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>58</v>
       </c>
@@ -2516,7 +2481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>59</v>
       </c>
@@ -2530,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>60</v>
       </c>
@@ -2544,7 +2509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="69" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>61</v>
       </c>
@@ -2558,7 +2523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2572,7 +2537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>63</v>
       </c>
@@ -2586,7 +2551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2600,7 +2565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2614,7 +2579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2628,7 +2593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>67</v>
       </c>
@@ -2642,7 +2607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>68</v>
       </c>
@@ -2656,7 +2621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>69</v>
       </c>
@@ -2670,7 +2635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>70</v>
       </c>
@@ -2684,7 +2649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>71</v>
       </c>
@@ -2698,7 +2663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>72</v>
       </c>
@@ -2712,7 +2677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>73</v>
       </c>
@@ -2726,7 +2691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>74</v>
       </c>
@@ -2740,7 +2705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>75</v>
       </c>
@@ -2754,7 +2719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>76</v>
       </c>
@@ -2768,7 +2733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>77</v>
       </c>
@@ -2782,7 +2747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>78</v>
       </c>
@@ -2796,7 +2761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>79</v>
       </c>
@@ -2810,7 +2775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="27" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>80</v>
       </c>
@@ -2824,7 +2789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" ht="27" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>81</v>
       </c>
@@ -2838,7 +2803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="27" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>82</v>
       </c>
@@ -2852,7 +2817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>83</v>
       </c>
@@ -2866,7 +2831,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>84</v>
       </c>
@@ -2880,7 +2845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>85</v>
       </c>
@@ -2894,7 +2859,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>86</v>
       </c>
@@ -2908,7 +2873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>87</v>
       </c>
@@ -2922,7 +2887,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>88</v>
       </c>
@@ -2936,7 +2901,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>89</v>
       </c>
@@ -2950,7 +2915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>90</v>
       </c>
@@ -2964,7 +2929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>91</v>
       </c>
@@ -2978,11 +2943,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="268.5" x14ac:dyDescent="0.25">
-      <c r="B95" s="12">
+    <row r="95" spans="2:6" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="13">
         <v>92</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>171</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -2992,9 +2957,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="12"/>
-      <c r="C96" s="9"/>
+    <row r="96" spans="2:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="B96" s="13"/>
+      <c r="C96" s="10"/>
       <c r="D96" s="2" t="s">
         <v>177</v>
       </c>
@@ -3011,13 +2976,13 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="currency">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="currency">
       <formula>NOT(ISERROR(SEARCH("currency",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,18 +2995,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3052,7 +3017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3063,7 +3028,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3074,7 +3039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3085,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3096,7 +3061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3107,7 +3072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3118,7 +3083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3129,7 +3094,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3140,7 +3105,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3151,7 +3116,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3162,7 +3127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3173,7 +3138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3184,7 +3149,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3195,7 +3160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3206,7 +3171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3217,7 +3182,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3228,7 +3193,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3239,7 +3204,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3250,7 +3215,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3261,7 +3226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3272,7 +3237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3283,7 +3248,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3294,7 +3259,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3305,7 +3270,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3316,7 +3281,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3327,7 +3292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3338,7 +3303,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3351,44 +3316,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B3:B8">
-    <cfRule type="containsText" dxfId="36" priority="10" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B21 B24:B25">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B11">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3404,13 +3369,13 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.625" customWidth="1"/>
+    <col min="2" max="2" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -3418,7 +3383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -3426,7 +3391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -3434,7 +3399,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -3442,7 +3407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3415,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -3458,7 +3423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -3466,7 +3431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -3474,7 +3439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -3482,7 +3447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -3490,7 +3455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -3498,7 +3463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -3506,7 +3471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -3514,7 +3479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -3522,7 +3487,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>64</v>
       </c>
@@ -3530,7 +3495,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -3538,7 +3503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>70</v>
       </c>
@@ -3546,7 +3511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -3554,7 +3519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>72</v>
       </c>
@@ -3562,7 +3527,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>73</v>
       </c>
@@ -3570,7 +3535,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>77</v>
       </c>
@@ -3578,7 +3543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -3586,7 +3551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>79</v>
       </c>
@@ -3594,7 +3559,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="27" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>80</v>
       </c>
@@ -3602,7 +3567,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -3610,7 +3575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>85</v>
       </c>
@@ -3618,7 +3583,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -3626,7 +3591,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>87</v>
       </c>
@@ -3634,7 +3599,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>88</v>
       </c>
@@ -3644,66 +3609,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B20">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B24">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B29">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3716,17 +3681,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="138" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3699,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -3742,27 +3707,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="268.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="289.8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -3770,7 +3735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -3778,7 +3743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -3786,7 +3751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -3794,7 +3759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="193.2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -3802,7 +3767,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -3810,7 +3775,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -3818,7 +3783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -3834,7 +3799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -3842,7 +3807,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>44</v>
       </c>
@@ -3850,7 +3815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -3858,7 +3823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -3866,7 +3831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="230.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="248.4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>49</v>
       </c>
@@ -3874,7 +3839,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>51</v>
       </c>
@@ -3882,7 +3847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
       </c>
@@ -3890,7 +3855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>54</v>
       </c>
@@ -3898,7 +3863,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="69" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
@@ -3906,7 +3871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -3914,7 +3879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -3922,7 +3887,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>69</v>
       </c>
@@ -3930,7 +3895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>76</v>
       </c>
@@ -3938,8 +3903,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
       <c r="C28" s="1"/>
     </row>
   </sheetData>
@@ -3948,26 +3913,26 @@
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B22 B24:B27">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="_date">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="_date">
       <formula>NOT(ISERROR(SEARCH("_date",B23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="dt">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="dt">
       <formula>NOT(ISERROR(SEARCH("dt",B23)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A0F1E-AB6D-42D4-ADE9-FA991B0A7F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711DCCED-8274-416C-949F-380AE4EA04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="420" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="189">
   <si>
     <t xml:space="preserve"> 'client_id',</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t xml:space="preserve">2, 16, </t>
+  </si>
+  <si>
+    <t>'attr_value'</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1742,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="138" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="193.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="207" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>26</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="69" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>53</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>56</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>61</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2551,7 +2556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>64</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>65</v>
       </c>
@@ -2579,7 +2584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>66</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>67</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>69</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="69" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>71</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>72</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>73</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>74</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>75</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>78</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>79</v>
       </c>
@@ -2775,7 +2780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>80</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>81</v>
       </c>
@@ -2803,7 +2808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>82</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>84</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>85</v>
       </c>
@@ -2995,7 +3000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3365,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3681,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3903,9 +3908,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="2:3" ht="289.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711DCCED-8274-416C-949F-380AE4EA04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D0A6B-E815-4688-85ED-3A5D760A6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D0A6B-E815-4688-85ED-3A5D760A6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4E80B-1680-453C-B623-D32C1148C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3370,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4E80B-1680-453C-B623-D32C1148C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3A28F-06D0-405D-8569-1BF49716EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -3000,7 +3000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3370,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3A28F-06D0-405D-8569-1BF49716EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711DCCED-8274-416C-949F-380AE4EA04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3370,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3A28F-06D0-405D-8569-1BF49716EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1DB35-DD80-4647-B585-2A1FB9388559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/working_with_datasets/data/maping.xlsx
+++ b/working_with_datasets/data/maping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON_PROJECTS\MIPT-hackathon-Robofinance\working_with_datasets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE1DB35-DD80-4647-B585-2A1FB9388559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632C9857-74F5-4F64-B753-0A2FCDC2973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B926909B-8E02-2A49-9B2A-14E8FDA2E9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="исходные_данные" sheetId="2" r:id="rId1"/>
@@ -1638,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E8C105-B789-954B-B48F-5ABFD60195B6}">
   <dimension ref="B2:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2856B-722E-49C1-8334-11FC5CC0C6DC}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3370,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D9475C-2563-4506-B1D3-98B31545B7AC}">
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3686,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E26785C-0112-435C-943E-F0169196EE14}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
